--- a/va_facility_data_2025-02-20/Harry S. Truman Memorial Veterans' Hospital - Facility Data.xlsx"; filename*=UTF-8''Harry%20S.%20Truman%20Memorial%20Veterans%27%20Hospital%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Harry S. Truman Memorial Veterans' Hospital - Facility Data.xlsx"; filename*=UTF-8''Harry%20S.%20Truman%20Memorial%20Veterans%27%20Hospital%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc4a7b24e35d24b549d1920fbe0879bcb"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R87148ab76eb2495d884eb16d2ff6b18d"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf01c545327b7448fab32f4406ff6752d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rcf755233f8304bfb8256f81e131fe8a7"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R54ea6c0000524df0b690514ade1b7346"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R225f1472f52749a18bff6aa98404a666"/>
   </x:sheets>
 </x:workbook>
 </file>
